--- a/src/main/webapp/WEB-INF/template/tem_GACH_LON.xlsx
+++ b/src/main/webapp/WEB-INF/template/tem_GACH_LON.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DU_AN\phamarcy\src\main\webapp\WEB-INF\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" activeTab="1"/>
   </bookViews>
@@ -136,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -315,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -372,6 +377,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,9 +557,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,6 +592,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -755,22 +768,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -818,11 +831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -852,10 +865,10 @@
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>

--- a/src/main/webapp/WEB-INF/template/tem_GACH_LON.xlsx
+++ b/src/main/webapp/WEB-INF/template/tem_GACH_LON.xlsx
@@ -55,9 +55,6 @@
       </rPr>
       <t>Đ/ M2 ( 20/04/19)</t>
     </r>
-  </si>
-  <si>
-    <t>Xuất xứ</t>
   </si>
   <si>
     <r>
@@ -136,6 +133,9 @@
       </rPr>
       <t xml:space="preserve"> NHÀ MÁY TẠI VĨNH PHÚC - HN</t>
     </r>
+  </si>
+  <si>
+    <t>Nơi sản xuất</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,14 +849,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="20"/>
@@ -900,12 +900,12 @@
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="7" spans="1:5" ht="39" customHeight="1" thickBot="1">
       <c r="A7" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="16"/>
     </row>
